--- a/results/I3_N5_M2_T45_C150_DepCentral_s3_mean_res.xlsx
+++ b/results/I3_N5_M2_T45_C150_DepCentral_s3_mean_res.xlsx
@@ -473,7 +473,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>183.4757182384827</v>
+        <v>249.4316415516093</v>
       </c>
     </row>
     <row r="4">
@@ -483,7 +483,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0.2809998989105225</v>
+        <v>0.3139998912811279</v>
       </c>
     </row>
     <row r="5">
@@ -503,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>26.18571823728904</v>
+        <v>29.43164155160937</v>
       </c>
     </row>
     <row r="7">
@@ -533,7 +533,7 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>157.2900000011936</v>
+        <v>144</v>
       </c>
     </row>
     <row r="10">
@@ -543,7 +543,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>0</v>
+        <v>76</v>
       </c>
     </row>
   </sheetData>
@@ -623,7 +623,7 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="C2" t="n">
         <v>1</v>
@@ -634,7 +634,7 @@
         <v>0</v>
       </c>
       <c r="B3" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="C3" t="n">
         <v>1</v>
@@ -656,7 +656,7 @@
         <v>2</v>
       </c>
       <c r="B5" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="C5" t="n">
         <v>1</v>
@@ -678,7 +678,7 @@
         <v>4</v>
       </c>
       <c r="B7" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="C7" t="n">
         <v>1</v>
@@ -689,7 +689,7 @@
         <v>5</v>
       </c>
       <c r="B8" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="C8" t="n">
         <v>1</v>
@@ -769,7 +769,7 @@
         <v>4</v>
       </c>
       <c r="B5" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C5" t="n">
         <v>1</v>
@@ -852,7 +852,7 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>33.10555953090582</v>
+        <v>39.93048325774539</v>
       </c>
     </row>
     <row r="4">
@@ -868,7 +868,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>36.88393248259585</v>
+        <v>41.38795072015898</v>
       </c>
     </row>
     <row r="6">
@@ -876,7 +876,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>30</v>
+        <v>27.46788625847888</v>
       </c>
     </row>
     <row r="7">
@@ -884,7 +884,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>30.33301651610689</v>
+        <v>35.70238675931969</v>
       </c>
     </row>
     <row r="8">
@@ -999,7 +999,7 @@
         <v>1</v>
       </c>
       <c r="C3" t="n">
-        <v>152.3989999999981</v>
+        <v>134</v>
       </c>
     </row>
     <row r="4">
@@ -1010,7 +1010,7 @@
         <v>1</v>
       </c>
       <c r="C4" t="n">
-        <v>88.01899999999978</v>
+        <v>103.8</v>
       </c>
     </row>
     <row r="5">
@@ -1021,7 +1021,7 @@
         <v>1</v>
       </c>
       <c r="C5" t="n">
-        <v>163.3300000000399</v>
+        <v>164.4</v>
       </c>
     </row>
     <row r="6">
@@ -1032,7 +1032,7 @@
         <v>1</v>
       </c>
       <c r="C6" t="n">
-        <v>73.97800000000645</v>
+        <v>53</v>
       </c>
     </row>
     <row r="7">
@@ -1043,7 +1043,7 @@
         <v>1</v>
       </c>
       <c r="C7" t="n">
-        <v>122.09800000004</v>
+        <v>62.4</v>
       </c>
     </row>
     <row r="8">
@@ -1054,7 +1054,7 @@
         <v>1</v>
       </c>
       <c r="C8" t="n">
-        <v>152.3990000000449</v>
+        <v>134</v>
       </c>
     </row>
     <row r="9">
@@ -1065,7 +1065,7 @@
         <v>1</v>
       </c>
       <c r="C9" t="n">
-        <v>163.3300000000745</v>
+        <v>164.4</v>
       </c>
     </row>
   </sheetData>
@@ -1112,7 +1112,7 @@
         <v>1</v>
       </c>
       <c r="C2" t="n">
-        <v>2.399000000044882</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3">
@@ -1123,7 +1123,7 @@
         <v>1</v>
       </c>
       <c r="C3" t="n">
-        <v>13.33000000007448</v>
+        <v>14.4</v>
       </c>
     </row>
   </sheetData>
@@ -1203,7 +1203,7 @@
         <v>1</v>
       </c>
       <c r="C5" t="n">
-        <v>0</v>
+        <v>7.6</v>
       </c>
     </row>
     <row r="6">
@@ -1228,7 +1228,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C3"/>
+  <dimension ref="A1:C2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1255,23 +1255,12 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="B2" t="n">
         <v>1</v>
       </c>
       <c r="C2" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" t="n">
-        <v>3</v>
-      </c>
-      <c r="B3" t="n">
-        <v>1</v>
-      </c>
-      <c r="C3" t="n">
         <v>1</v>
       </c>
     </row>
